--- a/项目实战/项目实战DAY01/测试范围列表(1).xlsx
+++ b/项目实战/项目实战DAY01/测试范围列表(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\leaving\黑马教程\项目实战教程\项目实战DAY01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\leaving\GitWorksplace\Test\项目实战\项目实战DAY01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B604DA-21B2-4BB0-B972-BF9CAC1C5086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7B539E-7710-4D2D-BB4E-77265F12A022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>功能点编号</t>
   </si>
@@ -665,6 +665,14 @@
   </si>
   <si>
     <t>6-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 与图片一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入全部合法，注册成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -885,6 +893,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -903,23 +923,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1425,7 +1433,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2048,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BA00BB-4B4B-4BA1-BC59-36F6918D2E26}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2078,22 +2086,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="35"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
@@ -2147,7 +2155,9 @@
       <c r="F6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="H6" s="24" t="s">
         <v>104</v>
       </c>
@@ -2172,7 +2182,7 @@
         <v>138</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>97</v>
@@ -2384,7 +2394,7 @@
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="30">
         <v>11</v>
       </c>
       <c r="C20" s="23"/>
@@ -2458,56 +2468,56 @@
       <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="31" t="s">
         <v>136</v>
       </c>
       <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="39" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="31" t="s">
         <v>137</v>
       </c>
       <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="31" t="s">
         <v>140</v>
       </c>
       <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="31" t="s">
         <v>141</v>
       </c>
       <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="31" t="s">
         <v>133</v>
       </c>
       <c r="E31" s="23"/>
@@ -2516,7 +2526,7 @@
       <c r="A32" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="32" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="23"/>
